--- a/pre/illustrative table files/DI.xlsx
+++ b/pre/illustrative table files/DI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e50b7f88a301451/Documents/GitHub/GEMIDE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e50b7f88a301451/Documents/GitHub/GEMIDE/pre/illustrative table files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{5747F36E-2B1E-4A42-A59B-BEF9F8D8B89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E828EC23-C7E6-41C6-AE6D-34A7F84889F0}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{5747F36E-2B1E-4A42-A59B-BEF9F8D8B89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A29F00B1-0F25-4E47-B4E3-D980964375D3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="8376" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIC" sheetId="2" r:id="rId1"/>
@@ -3224,6 +3224,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3248,9 +3251,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3266,6 +3266,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3533,7 +3537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BA5E4E-74CF-4D87-9CB7-F3CE2DD3A48E}">
   <dimension ref="B1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37:L49"/>
     </sheetView>
   </sheetViews>
@@ -3560,7 +3564,7 @@
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -3572,12 +3576,12 @@
       <c r="E2" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="68" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="65"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="16" t="s">
         <v>118</v>
       </c>
@@ -3587,10 +3591,10 @@
       <c r="E3" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="67"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="9" t="s">
         <v>120</v>
       </c>
@@ -3602,7 +3606,7 @@
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="9" t="s">
         <v>122</v>
       </c>
@@ -3614,7 +3618,7 @@
       </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
         <v>102</v>
       </c>
@@ -3626,7 +3630,7 @@
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="11" t="s">
         <v>109</v>
       </c>
@@ -3638,7 +3642,7 @@
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="65" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3652,7 +3656,7 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="65"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
         <v>97</v>
       </c>
@@ -3664,7 +3668,7 @@
       </c>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="65"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
         <v>98</v>
       </c>
@@ -3676,7 +3680,7 @@
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="65"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
         <v>100</v>
       </c>
@@ -3688,7 +3692,7 @@
       </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
         <v>101</v>
       </c>
@@ -3700,7 +3704,7 @@
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="65"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
         <v>103</v>
       </c>
@@ -3712,7 +3716,7 @@
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="65"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
         <v>140</v>
       </c>
@@ -3724,7 +3728,7 @@
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="65"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
         <v>106</v>
       </c>
@@ -3736,7 +3740,7 @@
       </c>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="65"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
         <v>107</v>
       </c>
@@ -3749,7 +3753,7 @@
       <c r="N16" t="s">
         <v>788</v>
       </c>
-      <c r="O16" s="72" t="s">
+      <c r="O16" s="64" t="s">
         <v>775</v>
       </c>
       <c r="Q16" t="s">
@@ -3757,7 +3761,7 @@
       </c>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="65"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
@@ -3770,7 +3774,7 @@
       <c r="N17" t="s">
         <v>788</v>
       </c>
-      <c r="O17" s="72" t="s">
+      <c r="O17" s="64" t="s">
         <v>776</v>
       </c>
       <c r="Q17" t="s">
@@ -3778,7 +3782,7 @@
       </c>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="66"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="11" t="s">
         <v>108</v>
       </c>
@@ -3800,7 +3804,7 @@
       <c r="N18" t="s">
         <v>788</v>
       </c>
-      <c r="O18" s="72" t="s">
+      <c r="O18" s="64" t="s">
         <v>777</v>
       </c>
       <c r="Q18" t="s">
@@ -3808,7 +3812,7 @@
       </c>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="65" t="s">
         <v>151</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3832,7 +3836,7 @@
       <c r="N19" t="s">
         <v>788</v>
       </c>
-      <c r="O19" s="72" t="s">
+      <c r="O19" s="64" t="s">
         <v>778</v>
       </c>
       <c r="Q19" t="s">
@@ -3840,7 +3844,7 @@
       </c>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="65"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="9" t="s">
         <v>99</v>
       </c>
@@ -3862,7 +3866,7 @@
       <c r="N20" t="s">
         <v>788</v>
       </c>
-      <c r="O20" s="72" t="s">
+      <c r="O20" s="64" t="s">
         <v>779</v>
       </c>
       <c r="Q20" t="s">
@@ -3870,7 +3874,7 @@
       </c>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="65"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="9" t="s">
         <v>156</v>
       </c>
@@ -3892,7 +3896,7 @@
       <c r="N21" t="s">
         <v>788</v>
       </c>
-      <c r="O21" s="72" t="s">
+      <c r="O21" s="64" t="s">
         <v>780</v>
       </c>
       <c r="Q21" t="s">
@@ -3900,7 +3904,7 @@
       </c>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="65"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="9" t="s">
         <v>159</v>
       </c>
@@ -3922,7 +3926,7 @@
       <c r="N22" t="s">
         <v>788</v>
       </c>
-      <c r="O22" s="72" t="s">
+      <c r="O22" s="64" t="s">
         <v>781</v>
       </c>
       <c r="Q22" t="s">
@@ -3930,7 +3934,7 @@
       </c>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="65"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="43" t="s">
         <v>162</v>
       </c>
@@ -3940,7 +3944,7 @@
       <c r="E23" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="68" t="s">
         <v>203</v>
       </c>
       <c r="I23" s="41" t="s">
@@ -3955,7 +3959,7 @@
       <c r="N23" t="s">
         <v>788</v>
       </c>
-      <c r="O23" s="72" t="s">
+      <c r="O23" s="64" t="s">
         <v>782</v>
       </c>
       <c r="Q23" t="s">
@@ -3963,7 +3967,7 @@
       </c>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="65"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="46" t="s">
         <v>170</v>
       </c>
@@ -3973,7 +3977,7 @@
       <c r="E24" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="67"/>
+      <c r="F24" s="68"/>
       <c r="I24" s="41" t="s">
         <v>174</v>
       </c>
@@ -3986,7 +3990,7 @@
       <c r="N24" t="s">
         <v>788</v>
       </c>
-      <c r="O24" s="72" t="s">
+      <c r="O24" s="64" t="s">
         <v>783</v>
       </c>
       <c r="Q24" t="s">
@@ -3994,7 +3998,7 @@
       </c>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="65"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="47" t="s">
         <v>166</v>
       </c>
@@ -4004,14 +4008,14 @@
       <c r="E25" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="67"/>
+      <c r="F25" s="68"/>
       <c r="J25" s="16" t="s">
         <v>189</v>
       </c>
       <c r="N25" t="s">
         <v>788</v>
       </c>
-      <c r="O25" s="72" t="s">
+      <c r="O25" s="64" t="s">
         <v>784</v>
       </c>
       <c r="Q25" t="s">
@@ -4019,7 +4023,7 @@
       </c>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="41" t="s">
         <v>168</v>
       </c>
@@ -4029,7 +4033,7 @@
       <c r="E26" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="68" t="s">
         <v>203</v>
       </c>
       <c r="J26" s="16" t="s">
@@ -4038,7 +4042,7 @@
       <c r="N26" t="s">
         <v>788</v>
       </c>
-      <c r="O26" s="72" t="s">
+      <c r="O26" s="64" t="s">
         <v>785</v>
       </c>
       <c r="Q26" t="s">
@@ -4046,7 +4050,7 @@
       </c>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="65"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="41" t="s">
         <v>164</v>
       </c>
@@ -4056,14 +4060,14 @@
       <c r="E27" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="67"/>
+      <c r="F27" s="68"/>
       <c r="J27" s="16" t="s">
         <v>193</v>
       </c>
       <c r="N27" t="s">
         <v>788</v>
       </c>
-      <c r="O27" s="72" t="s">
+      <c r="O27" s="64" t="s">
         <v>786</v>
       </c>
       <c r="Q27" t="s">
@@ -4071,7 +4075,7 @@
       </c>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="65"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="41" t="s">
         <v>172</v>
       </c>
@@ -4081,14 +4085,14 @@
       <c r="E28" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="68"/>
       <c r="J28" s="18" t="s">
         <v>195</v>
       </c>
       <c r="N28" t="s">
         <v>788</v>
       </c>
-      <c r="O28" s="72" t="s">
+      <c r="O28" s="64" t="s">
         <v>787</v>
       </c>
       <c r="Q28" t="s">
@@ -4096,7 +4100,7 @@
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="65"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="41" t="s">
         <v>174</v>
       </c>
@@ -4106,13 +4110,13 @@
       <c r="E29" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="67"/>
+      <c r="F29" s="68"/>
       <c r="J29" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="65"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="9" t="s">
         <v>104</v>
       </c>
@@ -4127,7 +4131,7 @@
       </c>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="65"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="9" t="s">
         <v>177</v>
       </c>
@@ -4139,7 +4143,7 @@
       </c>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="65"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="9" t="s">
         <v>180</v>
       </c>
@@ -4151,7 +4155,7 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="65"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="9" t="s">
         <v>105</v>
       </c>
@@ -4163,7 +4167,7 @@
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="65"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="9" t="s">
         <v>185</v>
       </c>
@@ -4175,7 +4179,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="65"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="16" t="s">
         <v>188</v>
       </c>
@@ -4185,12 +4189,12 @@
       <c r="E35" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="68" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="65"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="16" t="s">
         <v>190</v>
       </c>
@@ -4200,10 +4204,10 @@
       <c r="E36" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="67"/>
+      <c r="F36" s="68"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="65"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="16" t="s">
         <v>192</v>
       </c>
@@ -4213,13 +4217,13 @@
       <c r="E37" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="67" t="s">
+      <c r="F37" s="68" t="s">
         <v>203</v>
       </c>
       <c r="I37" t="s">
         <v>790</v>
       </c>
-      <c r="J37" s="72" t="s">
+      <c r="J37" s="64" t="s">
         <v>775</v>
       </c>
       <c r="L37" t="s">
@@ -4227,7 +4231,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="66"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="18" t="s">
         <v>194</v>
       </c>
@@ -4237,11 +4241,11 @@
       <c r="E38" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="67"/>
+      <c r="F38" s="68"/>
       <c r="I38" t="s">
         <v>790</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="64" t="s">
         <v>776</v>
       </c>
       <c r="L38" t="s">
@@ -4249,7 +4253,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="65" t="s">
         <v>196</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -4264,7 +4268,7 @@
       <c r="I39" t="s">
         <v>790</v>
       </c>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="64" t="s">
         <v>777</v>
       </c>
       <c r="L39" t="s">
@@ -4272,7 +4276,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="65"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="9" t="s">
         <v>199</v>
       </c>
@@ -4285,7 +4289,7 @@
       <c r="I40" t="s">
         <v>790</v>
       </c>
-      <c r="J40" s="72" t="s">
+      <c r="J40" s="64" t="s">
         <v>778</v>
       </c>
       <c r="L40" t="s">
@@ -4293,7 +4297,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="66"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="11" t="s">
         <v>49</v>
       </c>
@@ -4306,7 +4310,7 @@
       <c r="I41" t="s">
         <v>790</v>
       </c>
-      <c r="J41" s="72" t="s">
+      <c r="J41" s="64" t="s">
         <v>779</v>
       </c>
       <c r="L41" t="s">
@@ -4317,7 +4321,7 @@
       <c r="I42" t="s">
         <v>790</v>
       </c>
-      <c r="J42" s="72" t="s">
+      <c r="J42" s="64" t="s">
         <v>780</v>
       </c>
       <c r="L42" t="s">
@@ -4328,7 +4332,7 @@
       <c r="I43" t="s">
         <v>790</v>
       </c>
-      <c r="J43" s="72" t="s">
+      <c r="J43" s="64" t="s">
         <v>781</v>
       </c>
       <c r="L43" t="s">
@@ -4339,7 +4343,7 @@
       <c r="I44" t="s">
         <v>790</v>
       </c>
-      <c r="J44" s="72" t="s">
+      <c r="J44" s="64" t="s">
         <v>782</v>
       </c>
       <c r="L44" t="s">
@@ -4350,7 +4354,7 @@
       <c r="I45" t="s">
         <v>790</v>
       </c>
-      <c r="J45" s="72" t="s">
+      <c r="J45" s="64" t="s">
         <v>783</v>
       </c>
       <c r="L45" t="s">
@@ -4361,7 +4365,7 @@
       <c r="I46" t="s">
         <v>790</v>
       </c>
-      <c r="J46" s="72" t="s">
+      <c r="J46" s="64" t="s">
         <v>784</v>
       </c>
       <c r="L46" t="s">
@@ -4372,7 +4376,7 @@
       <c r="I47" t="s">
         <v>790</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="64" t="s">
         <v>785</v>
       </c>
       <c r="L47" t="s">
@@ -4383,7 +4387,7 @@
       <c r="I48" t="s">
         <v>790</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="64" t="s">
         <v>786</v>
       </c>
       <c r="L48" t="s">
@@ -4394,7 +4398,7 @@
       <c r="I49" t="s">
         <v>790</v>
       </c>
-      <c r="J49" s="72" t="s">
+      <c r="J49" s="64" t="s">
         <v>787</v>
       </c>
       <c r="L49" t="s">
@@ -6431,10 +6435,10 @@
       <c r="D5" t="s">
         <v>541</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="72" t="s">
         <v>740</v>
       </c>
-      <c r="L5" s="71"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="4:14" ht="15.6">
@@ -6808,7 +6812,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="63">
         <f ca="1">TODAY()</f>
-        <v>45319</v>
+        <v>45341</v>
       </c>
       <c r="B2" t="s">
         <v>768</v>
@@ -6817,7 +6821,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="63">
         <f t="shared" ref="A3:A4" ca="1" si="0">TODAY()</f>
-        <v>45319</v>
+        <v>45341</v>
       </c>
       <c r="B3" t="s">
         <v>769</v>
@@ -6826,7 +6830,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>45319</v>
+        <v>45341</v>
       </c>
       <c r="B4" t="s">
         <v>773</v>
@@ -6841,7 +6845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF07B461-8F0A-4F03-8CE7-77D021C4B010}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
@@ -7614,7 +7618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA870AF-F7A5-44AF-8F07-F9DC293CD914}">
   <dimension ref="E1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -7632,7 +7636,7 @@
       <c r="E2" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="70" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7640,13 +7644,13 @@
       <c r="E3" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="F3" s="69"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="5:6">
       <c r="E4" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="70" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7654,37 +7658,37 @@
       <c r="E5" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="5:6">
       <c r="E6" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="5:6">
       <c r="E8" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="5:6">
       <c r="E9" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="5:6">
       <c r="E10" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="70" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7692,13 +7696,13 @@
       <c r="E11" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="5:6">
       <c r="E12" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="5:6">
       <c r="E13" s="22" t="s">
@@ -7709,7 +7713,7 @@
       <c r="E14" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="69" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7717,7 +7721,7 @@
       <c r="E15" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8477,11 +8481,11 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="1"/>
@@ -9085,13 +9089,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287DA618-E5E5-4C43-B3A2-5C05E8E0DAF8}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
